--- a/static/form/출,퇴근 노선관리 엑셀 업로드 양식.xlsx
+++ b/static/form/출,퇴근 노선관리 엑셀 업로드 양식.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlrms\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EBA684-3357-4674-A7DF-66E1365279FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="25815" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1176" yWindow="1176" windowWidth="25812" windowHeight="13596"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,29 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>kun lee</author>
+    <author>Shin</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{676C115D-16C9-45E7-ACEF-6254D70F7E40}">
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기존에 있던 노선을 수정하려면  엑셀 다운로드에 있던 id를 입력하세요.
+새로 생성할 노선은 id를 비워주세요.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -380,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{6610FDCA-239B-4D96-AF2D-47E7C2F652B1}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E098B237-0B55-47E6-A469-E60E770BEEB4}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A35D9024-3F6F-4897-BD86-A9105C0F0BD0}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -548,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DCB007A0-BF7F-49E3-AF30-F05B76FF9898}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -580,91 +596,28 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>앞번호와</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>뒷번호를</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> ","</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>로</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>구분하여</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>숫자만</t>
+          <t>앞</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번호를</t>
         </r>
         <r>
           <rPr>
@@ -717,7 +670,6 @@
             <family val="2"/>
           </rPr>
           <t>.
-ex)2,13
 *</t>
         </r>
         <r>
@@ -764,7 +716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7FFCE38B-F2EF-4B94-ADC3-925BFD8C39FC}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -775,133 +727,49 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>출발시간</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>도착시간을</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>띄어쓰기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>없이</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> " : "</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>와</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>" ~ "</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>로</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>구분하여</t>
+          <t>순번의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>뒷</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번호를</t>
         </r>
         <r>
           <rPr>
@@ -954,7 +822,6 @@
             <family val="2"/>
           </rPr>
           <t>.
-ex)04:30~08:30
 *</t>
         </r>
         <r>
@@ -1001,7 +868,355 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{89682497-DEC8-48B0-A627-74F71EACAADD}">
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간과</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  " : "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구분하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.
+ex)04:30
+*</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력사항입니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간과</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  " : "</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구분하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.
+ex)04:30
+*</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력사항입니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1197,7 +1412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{1C91ED08-37FA-4188-8047-ADB15FB9C4C6}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1362,28 +1577,28 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>띄어쓰기</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>없이</t>
+          <t>띄어쓰기로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구분하여</t>
         </r>
         <r>
           <rPr>
@@ -1447,7 +1662,49 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">월수금
+          <t>월</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">금
 </t>
         </r>
         <r>
@@ -1504,49 +1761,60 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{E0CF8B78-D61C-4C40-BFEF-BB7EA0BAF82F}">
+    <comment ref="N1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>*</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>필수</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>입력사항입니다</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카카오맵</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>링크를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>넣어주세요</t>
         </r>
         <r>
           <rPr>
@@ -1560,17 +1828,398 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{52F8A7CF-6E53-4115-986B-8AAAE09575DE}">
+    <comment ref="O1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경유지를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> ', '</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구분하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">.
+Ex) </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경유지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경유지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경유지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t>*</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력사항입니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>*</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>필수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력사항입니다</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용여부를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> '</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">' </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>혹은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> '</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미사용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">' </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해주세요</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.
+*</t>
         </r>
         <r>
           <rPr>
@@ -1621,7 +2270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>그룹</t>
   </si>
@@ -1635,12 +2284,6 @@
     <t>도착지</t>
   </si>
   <si>
-    <t>순번</t>
-  </si>
-  <si>
-    <t>운행시간</t>
-  </si>
-  <si>
     <t>출/퇴근</t>
   </si>
   <si>
@@ -1656,31 +2299,10 @@
     <t>금액</t>
   </si>
   <si>
-    <t>기사수당</t>
-  </si>
-  <si>
     <t>참조사항</t>
   </si>
   <si>
-    <t>마북동 연구소 출근</t>
-  </si>
-  <si>
-    <t>동수원</t>
-  </si>
-  <si>
-    <t>동수원[06시 새벽조 출, 퇴근] 장안구청 앞</t>
-  </si>
-  <si>
-    <t>한국 쓰리엠 출근</t>
-  </si>
-  <si>
-    <t>04:30~07:16</t>
-  </si>
-  <si>
     <t>출근</t>
-  </si>
-  <si>
-    <t>월화수목금토일</t>
   </si>
   <si>
     <t>위치치치치</t>
@@ -1695,18 +2317,83 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1, 17</t>
+    <t>경유지</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오맵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발시간</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착시간</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>월 화 수 목 금 토 일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사수당</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>경유지1, 경유지2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://kingbuserp.link/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>04:30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드테스트2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1752,6 +2439,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1791,31 +2494,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2126,114 +2841,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B80E88-5B75-4580-88A4-031CD54B5AB8}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="4" width="45.625" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="26.75" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="45.625" customWidth="1"/>
-    <col min="11" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="40.625" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="5"/>
+    <col min="2" max="2" width="23" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="5" customWidth="1"/>
+    <col min="4" max="5" width="45.59765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="5" customWidth="1"/>
+    <col min="8" max="9" width="14.09765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.8984375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="26.69921875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="20" style="5" customWidth="1"/>
+    <col min="13" max="13" width="45.59765625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="15.796875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="20.59765625" style="5" customWidth="1"/>
+    <col min="16" max="17" width="12.59765625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="40.59765625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="8.796875" style="3"/>
+    <col min="20" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="S1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="N2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="5">
-        <v>5000</v>
-      </c>
-      <c r="L2" s="5">
-        <v>5000</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="N3" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/static/form/출,퇴근 노선관리 엑셀 업로드 양식.xlsx
+++ b/static/form/출,퇴근 노선관리 엑셀 업로드 양식.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="1176" windowWidth="25812" windowHeight="13596"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -2092,7 +2092,349 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="1" shapeId="0">
+    <comment ref="R1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>금액이나</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기사수당을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정할</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기준일을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> '</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>년</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>월</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">' </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>형식으로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주세요
+기준일을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력하지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않으면</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>금액</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기사수당이</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수정되지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">않습니다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ex) 2023-10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2270,7 +2612,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>그룹</t>
   </si>
@@ -2388,12 +2730,16 @@
     <t>s</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>기준일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2455,6 +2801,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2498,7 +2851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2526,6 +2879,9 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2842,10 +3198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2863,13 +3219,13 @@
     <col min="13" max="13" width="45.59765625" style="5" customWidth="1"/>
     <col min="14" max="14" width="15.796875" style="5" customWidth="1"/>
     <col min="15" max="15" width="20.59765625" style="5" customWidth="1"/>
-    <col min="16" max="17" width="12.59765625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="40.59765625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="8.796875" style="3"/>
-    <col min="20" max="16384" width="8.796875" style="1"/>
+    <col min="16" max="18" width="12.59765625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="40.59765625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="8.796875" style="3"/>
+    <col min="21" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -2921,14 +3277,17 @@
       <c r="Q1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2977,14 +3336,14 @@
       <c r="Q2" s="2">
         <v>5000</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="F3" s="3"/>

--- a/static/form/출,퇴근 노선관리 엑셀 업로드 양식.xlsx
+++ b/static/form/출,퇴근 노선관리 엑셀 업로드 양식.xlsx
@@ -2880,7 +2880,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3200,8 +3200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3219,7 +3219,8 @@
     <col min="13" max="13" width="45.59765625" style="5" customWidth="1"/>
     <col min="14" max="14" width="15.796875" style="5" customWidth="1"/>
     <col min="15" max="15" width="20.59765625" style="5" customWidth="1"/>
-    <col min="16" max="18" width="12.59765625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="12.59765625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.59765625" style="5" customWidth="1"/>
     <col min="19" max="19" width="40.59765625" style="5" customWidth="1"/>
     <col min="20" max="20" width="8.796875" style="3"/>
     <col min="21" max="16384" width="8.796875" style="1"/>
